--- a/tools/越南服务器Server+H5.xlsx
+++ b/tools/越南服务器Server+H5.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyng/develop/game/project/yng-fishjoy/tools/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28060" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>game-node-04</t>
   </si>
@@ -156,18 +161,28 @@
   <si>
     <t>171.244.35.37</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip:119.28.176.122</t>
+  </si>
+  <si>
+    <t>user:root</t>
+  </si>
+  <si>
+    <t>pwd:Chufeng123456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -619,7 +634,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -627,21 +642,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="84.375" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="84.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -661,7 +676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -671,7 +686,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="18.75">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -689,7 +704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -707,7 +722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -725,7 +740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>12</v>
@@ -735,7 +750,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="18.75">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -753,7 +768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75">
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -771,7 +786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75">
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -789,7 +804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75">
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>25</v>
@@ -799,7 +814,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="18.75">
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -817,7 +832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75">
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -835,7 +850,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75">
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -851,6 +866,21 @@
       </c>
       <c r="F13" s="16" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
